--- a/lcs.xlsx
+++ b/lcs.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rocco\uni\algorithms-and-data-structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C0DAF1-CCC3-4E33-B15E-DE7F7F9FDDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B292EF-3B33-4931-88F2-44D160328B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="esercizio 1" sheetId="1" r:id="rId1"/>
-    <sheet name="esercizio 2" sheetId="2" r:id="rId2"/>
+    <sheet name="AGGTAB – GXTXAYB" sheetId="1" r:id="rId1"/>
+    <sheet name="ACGTGCA – AGTGCA" sheetId="2" r:id="rId2"/>
+    <sheet name="nome e cognome" sheetId="3" r:id="rId3"/>
+    <sheet name="albero – tabella" sheetId="4" r:id="rId4"/>
+    <sheet name="programmazione – informatica" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>epsilon</t>
   </si>
@@ -78,12 +81,66 @@
   <si>
     <t>LCS = AGTGCA</t>
   </si>
+  <si>
+    <t>X = ROCCO
+Y = DELPRETE</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>LCS = R</t>
+  </si>
+  <si>
+    <t>X = ALBERO
+Y = TABELLA</t>
+  </si>
+  <si>
+    <t>LCS = ABE</t>
+  </si>
+  <si>
+    <t>X = PROGRAMMAZIONE
+Y = INFORMATICA</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>LCS = ORMAI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +156,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
@@ -168,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -517,11 +567,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,70 +804,172 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,7 +1255,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,74 +1268,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23" t="s">
+      <c r="A7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="8" t="s">
         <v>0</v>
@@ -1045,7 +1362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
@@ -1103,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
@@ -1132,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
@@ -1161,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>3</v>
       </c>
@@ -1190,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>1</v>
       </c>
@@ -1219,7 +1536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>4</v>
       </c>
@@ -1249,17 +1566,17 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1274,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A0DB21-E100-4665-A2C4-6D6B501300EA}">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,70 +1605,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23" t="s">
+      <c r="A7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+    </row>
+    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="8" t="s">
         <v>0</v>
@@ -1375,33 +1692,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="16">
         <v>0</v>
       </c>
-      <c r="D11" s="37">
-        <v>0</v>
-      </c>
-      <c r="E11" s="37">
-        <v>0</v>
-      </c>
-      <c r="F11" s="37">
-        <v>0</v>
-      </c>
-      <c r="G11" s="37">
-        <v>0</v>
-      </c>
-      <c r="H11" s="37">
-        <v>0</v>
-      </c>
-      <c r="I11" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
@@ -1411,23 +1728,23 @@
       <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="39">
-        <v>1</v>
-      </c>
-      <c r="F12" s="39">
-        <v>1</v>
-      </c>
-      <c r="G12" s="39">
-        <v>1</v>
-      </c>
-      <c r="H12" s="39">
-        <v>1</v>
-      </c>
-      <c r="I12" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
@@ -1437,163 +1754,163 @@
       <c r="D13" s="22">
         <v>1</v>
       </c>
-      <c r="E13" s="39">
-        <v>1</v>
-      </c>
-      <c r="F13" s="39">
-        <v>1</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1</v>
-      </c>
-      <c r="H13" s="39">
-        <v>2</v>
-      </c>
-      <c r="I13" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="20">
         <v>2</v>
       </c>
-      <c r="F14" s="39">
-        <v>2</v>
-      </c>
-      <c r="G14" s="39">
-        <v>2</v>
-      </c>
-      <c r="H14" s="39">
-        <v>2</v>
-      </c>
-      <c r="I14" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="39">
-        <v>1</v>
-      </c>
-      <c r="E15" s="39">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="20">
         <v>3</v>
       </c>
-      <c r="G15" s="39">
-        <v>3</v>
-      </c>
-      <c r="H15" s="39">
-        <v>3</v>
-      </c>
-      <c r="I15" s="40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="11">
         <v>0</v>
       </c>
-      <c r="D16" s="39">
-        <v>1</v>
-      </c>
-      <c r="E16" s="39">
-        <v>2</v>
-      </c>
-      <c r="F16" s="39">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
         <v>3</v>
       </c>
       <c r="G16" s="20">
         <v>4</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="2">
         <v>4</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="34">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="39">
-        <v>1</v>
-      </c>
-      <c r="E17" s="39">
-        <v>2</v>
-      </c>
-      <c r="F17" s="39">
-        <v>3</v>
-      </c>
-      <c r="G17" s="39">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
         <v>4</v>
       </c>
       <c r="H17" s="20">
         <v>5</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="36">
-        <v>0</v>
-      </c>
-      <c r="D18" s="42">
-        <v>1</v>
-      </c>
-      <c r="E18" s="42">
-        <v>2</v>
-      </c>
-      <c r="F18" s="42">
-        <v>3</v>
-      </c>
-      <c r="G18" s="42">
+    <row r="18" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="32">
+        <v>0</v>
+      </c>
+      <c r="D18" s="35">
+        <v>1</v>
+      </c>
+      <c r="E18" s="35">
+        <v>2</v>
+      </c>
+      <c r="F18" s="35">
+        <v>3</v>
+      </c>
+      <c r="G18" s="35">
         <v>4</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="35">
         <v>5</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1602,4 +1919,1455 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB73071-7A81-418E-82D5-7C1DEDD9EADF}">
+  <dimension ref="A2:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" style="1" customWidth="1"/>
+    <col min="13" max="15" width="20.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41"/>
+      <c r="C10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43">
+        <v>0</v>
+      </c>
+      <c r="E12" s="43">
+        <v>0</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1</v>
+      </c>
+      <c r="I12" s="22">
+        <v>1</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1</v>
+      </c>
+      <c r="K12" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43">
+        <v>0</v>
+      </c>
+      <c r="E13" s="43">
+        <v>0</v>
+      </c>
+      <c r="F13" s="43">
+        <v>0</v>
+      </c>
+      <c r="G13" s="43">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43">
+        <v>0</v>
+      </c>
+      <c r="E14" s="43">
+        <v>0</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0</v>
+      </c>
+      <c r="G14" s="43">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43">
+        <v>0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="40">
+        <v>0</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0</v>
+      </c>
+      <c r="E16" s="44">
+        <v>0</v>
+      </c>
+      <c r="F16" s="44">
+        <v>0</v>
+      </c>
+      <c r="G16" s="44">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="42">
+        <v>1</v>
+      </c>
+      <c r="J16" s="42">
+        <v>1</v>
+      </c>
+      <c r="K16" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:K9"/>
+    <mergeCell ref="B19:K19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9379595-A004-4C54-8D7C-8926E58FBEB8}">
+  <dimension ref="A2:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" style="1" customWidth="1"/>
+    <col min="12" max="14" width="20.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41"/>
+      <c r="C10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="54">
+        <v>0</v>
+      </c>
+      <c r="D11" s="62">
+        <v>0</v>
+      </c>
+      <c r="E11" s="54">
+        <v>0</v>
+      </c>
+      <c r="F11" s="54">
+        <v>0</v>
+      </c>
+      <c r="G11" s="54">
+        <v>0</v>
+      </c>
+      <c r="H11" s="54">
+        <v>0</v>
+      </c>
+      <c r="I11" s="54">
+        <v>0</v>
+      </c>
+      <c r="J11" s="60">
+        <v>0</v>
+      </c>
+      <c r="K11" s="61"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="54">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="43">
+        <v>1</v>
+      </c>
+      <c r="G12" s="43">
+        <v>1</v>
+      </c>
+      <c r="H12" s="43">
+        <v>1</v>
+      </c>
+      <c r="I12" s="43">
+        <v>1</v>
+      </c>
+      <c r="J12" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="54">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="43">
+        <v>1</v>
+      </c>
+      <c r="G13" s="43">
+        <v>1</v>
+      </c>
+      <c r="H13" s="43">
+        <v>2</v>
+      </c>
+      <c r="I13" s="43">
+        <v>2</v>
+      </c>
+      <c r="J13" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="54">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43">
+        <v>0</v>
+      </c>
+      <c r="E14" s="43">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20">
+        <v>2</v>
+      </c>
+      <c r="G14" s="43">
+        <v>2</v>
+      </c>
+      <c r="H14" s="43">
+        <v>2</v>
+      </c>
+      <c r="I14" s="43">
+        <v>2</v>
+      </c>
+      <c r="J14" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="54">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43">
+        <v>0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43">
+        <v>2</v>
+      </c>
+      <c r="G15" s="20">
+        <v>3</v>
+      </c>
+      <c r="H15" s="22">
+        <v>3</v>
+      </c>
+      <c r="I15" s="22">
+        <v>3</v>
+      </c>
+      <c r="J15" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="54">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43">
+        <v>0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>1</v>
+      </c>
+      <c r="F16" s="43">
+        <v>2</v>
+      </c>
+      <c r="G16" s="43">
+        <v>3</v>
+      </c>
+      <c r="H16" s="43">
+        <v>3</v>
+      </c>
+      <c r="I16" s="56">
+        <v>3</v>
+      </c>
+      <c r="J16" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="58">
+        <v>0</v>
+      </c>
+      <c r="D17" s="51">
+        <v>0</v>
+      </c>
+      <c r="E17" s="51">
+        <v>1</v>
+      </c>
+      <c r="F17" s="51">
+        <v>2</v>
+      </c>
+      <c r="G17" s="51">
+        <v>3</v>
+      </c>
+      <c r="H17" s="51">
+        <v>3</v>
+      </c>
+      <c r="I17" s="57">
+        <v>3</v>
+      </c>
+      <c r="J17" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="59"/>
+    </row>
+    <row r="19" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:J9"/>
+    <mergeCell ref="B19:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851D61C3-DF7A-46C3-9EA9-3585D7C5C9AE}">
+  <dimension ref="A2:R24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="17" width="20.7109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="65"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="66"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+    </row>
+    <row r="8" spans="1:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:18" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41"/>
+      <c r="C10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="54">
+        <v>0</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0</v>
+      </c>
+      <c r="F11" s="54">
+        <v>0</v>
+      </c>
+      <c r="G11" s="54">
+        <v>0</v>
+      </c>
+      <c r="H11" s="54">
+        <v>0</v>
+      </c>
+      <c r="I11" s="54">
+        <v>0</v>
+      </c>
+      <c r="J11" s="54">
+        <v>0</v>
+      </c>
+      <c r="K11" s="54">
+        <v>0</v>
+      </c>
+      <c r="L11" s="54">
+        <v>0</v>
+      </c>
+      <c r="M11" s="54">
+        <v>0</v>
+      </c>
+      <c r="N11" s="54">
+        <v>0</v>
+      </c>
+      <c r="O11" s="54">
+        <v>0</v>
+      </c>
+      <c r="P11" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="60">
+        <v>0</v>
+      </c>
+      <c r="R11" s="61"/>
+    </row>
+    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="54">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0</v>
+      </c>
+      <c r="I12" s="43">
+        <v>0</v>
+      </c>
+      <c r="J12" s="74">
+        <v>0</v>
+      </c>
+      <c r="K12" s="43">
+        <v>0</v>
+      </c>
+      <c r="L12" s="43">
+        <v>0</v>
+      </c>
+      <c r="M12" s="43">
+        <v>0</v>
+      </c>
+      <c r="N12" s="43">
+        <v>1</v>
+      </c>
+      <c r="O12" s="43">
+        <v>1</v>
+      </c>
+      <c r="P12" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="54">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="43">
+        <v>0</v>
+      </c>
+      <c r="G13" s="43">
+        <v>0</v>
+      </c>
+      <c r="H13" s="43">
+        <v>0</v>
+      </c>
+      <c r="I13" s="43">
+        <v>0</v>
+      </c>
+      <c r="J13" s="74">
+        <v>0</v>
+      </c>
+      <c r="K13" s="43">
+        <v>0</v>
+      </c>
+      <c r="L13" s="43">
+        <v>0</v>
+      </c>
+      <c r="M13" s="43">
+        <v>0</v>
+      </c>
+      <c r="N13" s="43">
+        <v>1</v>
+      </c>
+      <c r="O13" s="43">
+        <v>1</v>
+      </c>
+      <c r="P13" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="54">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0</v>
+      </c>
+      <c r="G14" s="43">
+        <v>0</v>
+      </c>
+      <c r="H14" s="43">
+        <v>0</v>
+      </c>
+      <c r="I14" s="43">
+        <v>0</v>
+      </c>
+      <c r="J14" s="74">
+        <v>0</v>
+      </c>
+      <c r="K14" s="43">
+        <v>0</v>
+      </c>
+      <c r="L14" s="43">
+        <v>0</v>
+      </c>
+      <c r="M14" s="43">
+        <v>0</v>
+      </c>
+      <c r="N14" s="43">
+        <v>1</v>
+      </c>
+      <c r="O14" s="43">
+        <v>1</v>
+      </c>
+      <c r="P14" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="54">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43">
+        <v>0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1</v>
+      </c>
+      <c r="H15" s="43">
+        <v>1</v>
+      </c>
+      <c r="I15" s="43">
+        <v>1</v>
+      </c>
+      <c r="J15" s="74">
+        <v>1</v>
+      </c>
+      <c r="K15" s="43">
+        <v>1</v>
+      </c>
+      <c r="L15" s="43">
+        <v>1</v>
+      </c>
+      <c r="M15" s="43">
+        <v>1</v>
+      </c>
+      <c r="N15" s="43">
+        <v>1</v>
+      </c>
+      <c r="O15" s="43">
+        <v>2</v>
+      </c>
+      <c r="P15" s="43">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="54">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43">
+        <v>0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>1</v>
+      </c>
+      <c r="F16" s="43">
+        <v>1</v>
+      </c>
+      <c r="G16" s="43">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20">
+        <v>2</v>
+      </c>
+      <c r="I16" s="21">
+        <v>2</v>
+      </c>
+      <c r="J16" s="75">
+        <v>2</v>
+      </c>
+      <c r="K16" s="43">
+        <v>2</v>
+      </c>
+      <c r="L16" s="43">
+        <v>2</v>
+      </c>
+      <c r="M16" s="43">
+        <v>2</v>
+      </c>
+      <c r="N16" s="43">
+        <v>2</v>
+      </c>
+      <c r="O16" s="43">
+        <v>2</v>
+      </c>
+      <c r="P16" s="43">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="54">
+        <v>0</v>
+      </c>
+      <c r="D17" s="69">
+        <v>0</v>
+      </c>
+      <c r="E17" s="69">
+        <v>1</v>
+      </c>
+      <c r="F17" s="69">
+        <v>1</v>
+      </c>
+      <c r="G17" s="69">
+        <v>1</v>
+      </c>
+      <c r="H17" s="69">
+        <v>2</v>
+      </c>
+      <c r="I17" s="68">
+        <v>2</v>
+      </c>
+      <c r="J17" s="76">
+        <v>3</v>
+      </c>
+      <c r="K17" s="20">
+        <v>3</v>
+      </c>
+      <c r="L17" s="43">
+        <v>3</v>
+      </c>
+      <c r="M17" s="43">
+        <v>3</v>
+      </c>
+      <c r="N17" s="43">
+        <v>3</v>
+      </c>
+      <c r="O17" s="43">
+        <v>3</v>
+      </c>
+      <c r="P17" s="43">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="54">
+        <v>0</v>
+      </c>
+      <c r="D18" s="43">
+        <v>0</v>
+      </c>
+      <c r="E18" s="74">
+        <v>1</v>
+      </c>
+      <c r="F18" s="43">
+        <v>1</v>
+      </c>
+      <c r="G18" s="43">
+        <v>1</v>
+      </c>
+      <c r="H18" s="74">
+        <v>2</v>
+      </c>
+      <c r="I18" s="43">
+        <v>3</v>
+      </c>
+      <c r="J18" s="74">
+        <v>3</v>
+      </c>
+      <c r="K18" s="43">
+        <v>3</v>
+      </c>
+      <c r="L18" s="20">
+        <v>4</v>
+      </c>
+      <c r="M18" s="22">
+        <v>4</v>
+      </c>
+      <c r="N18" s="43">
+        <v>4</v>
+      </c>
+      <c r="O18" s="43">
+        <v>4</v>
+      </c>
+      <c r="P18" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="54">
+        <v>0</v>
+      </c>
+      <c r="D19" s="43">
+        <v>0</v>
+      </c>
+      <c r="E19" s="74">
+        <v>1</v>
+      </c>
+      <c r="F19" s="43">
+        <v>1</v>
+      </c>
+      <c r="G19" s="43">
+        <v>1</v>
+      </c>
+      <c r="H19" s="74">
+        <v>2</v>
+      </c>
+      <c r="I19" s="43">
+        <v>3</v>
+      </c>
+      <c r="J19" s="74">
+        <v>3</v>
+      </c>
+      <c r="K19" s="43">
+        <v>3</v>
+      </c>
+      <c r="L19" s="43">
+        <v>4</v>
+      </c>
+      <c r="M19" s="22">
+        <v>4</v>
+      </c>
+      <c r="N19" s="43">
+        <v>4</v>
+      </c>
+      <c r="O19" s="43">
+        <v>4</v>
+      </c>
+      <c r="P19" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="54">
+        <v>0</v>
+      </c>
+      <c r="D20" s="43">
+        <v>0</v>
+      </c>
+      <c r="E20" s="74">
+        <v>1</v>
+      </c>
+      <c r="F20" s="43">
+        <v>1</v>
+      </c>
+      <c r="G20" s="43">
+        <v>1</v>
+      </c>
+      <c r="H20" s="74">
+        <v>2</v>
+      </c>
+      <c r="I20" s="43">
+        <v>3</v>
+      </c>
+      <c r="J20" s="74">
+        <v>3</v>
+      </c>
+      <c r="K20" s="43">
+        <v>3</v>
+      </c>
+      <c r="L20" s="43">
+        <v>4</v>
+      </c>
+      <c r="M20" s="43">
+        <v>4</v>
+      </c>
+      <c r="N20" s="20">
+        <v>5</v>
+      </c>
+      <c r="O20" s="22">
+        <v>5</v>
+      </c>
+      <c r="P20" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="B21" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="54">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43">
+        <v>0</v>
+      </c>
+      <c r="E21" s="74">
+        <v>1</v>
+      </c>
+      <c r="F21" s="43">
+        <v>1</v>
+      </c>
+      <c r="G21" s="43">
+        <v>1</v>
+      </c>
+      <c r="H21" s="74">
+        <v>2</v>
+      </c>
+      <c r="I21" s="43">
+        <v>3</v>
+      </c>
+      <c r="J21" s="74">
+        <v>3</v>
+      </c>
+      <c r="K21" s="43">
+        <v>3</v>
+      </c>
+      <c r="L21" s="43">
+        <v>4</v>
+      </c>
+      <c r="M21" s="43">
+        <v>4</v>
+      </c>
+      <c r="N21" s="43">
+        <v>5</v>
+      </c>
+      <c r="O21" s="43">
+        <v>5</v>
+      </c>
+      <c r="P21" s="43">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="72"/>
+      <c r="B22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="58">
+        <v>0</v>
+      </c>
+      <c r="D22" s="44">
+        <v>0</v>
+      </c>
+      <c r="E22" s="77">
+        <v>1</v>
+      </c>
+      <c r="F22" s="44">
+        <v>1</v>
+      </c>
+      <c r="G22" s="44">
+        <v>1</v>
+      </c>
+      <c r="H22" s="77">
+        <v>2</v>
+      </c>
+      <c r="I22" s="44">
+        <v>3</v>
+      </c>
+      <c r="J22" s="77">
+        <v>3</v>
+      </c>
+      <c r="K22" s="44">
+        <v>3</v>
+      </c>
+      <c r="L22" s="44">
+        <v>4</v>
+      </c>
+      <c r="M22" s="44">
+        <v>4</v>
+      </c>
+      <c r="N22" s="44">
+        <v>5</v>
+      </c>
+      <c r="O22" s="44">
+        <v>5</v>
+      </c>
+      <c r="P22" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="73"/>
+      <c r="C23" s="59"/>
+    </row>
+    <row r="24" spans="1:17" s="37" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:Q9"/>
+    <mergeCell ref="B24:Q24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lcs.xlsx
+++ b/lcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rocco\uni\algorithms-and-data-structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B292EF-3B33-4931-88F2-44D160328B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89C6CF1-BAFF-488B-8362-4ACE31C4810F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGGTAB – GXTXAYB" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="nome e cognome" sheetId="3" r:id="rId3"/>
     <sheet name="albero – tabella" sheetId="4" r:id="rId4"/>
     <sheet name="programmazione – informatica" sheetId="5" r:id="rId5"/>
+    <sheet name="heap – pea" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
   <si>
     <t>epsilon</t>
   </si>
@@ -135,6 +136,16 @@
   <si>
     <t>LCS = ORMAI</t>
   </si>
+  <si>
+    <t>X = heap
+Y = pea</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>LCS = EA</t>
+  </si>
 </sst>
 </file>
 
@@ -218,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -732,11 +743,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,12 +875,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,16 +884,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -885,91 +971,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,7 +1284,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,28 +1341,28 @@
     </row>
     <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
@@ -1565,18 +1594,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
+    <row r="20" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B20" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1592,7 +1621,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I9"/>
+      <selection activeCell="B21" sqref="B21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,26 +1676,26 @@
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
@@ -1901,16 +1930,16 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1926,7 +1955,7 @@
   <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:XFD1048576"/>
+      <selection activeCell="B19" sqref="B19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,33 +2010,33 @@
     </row>
     <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="8" t="s">
         <v>0</v>
       </c>
@@ -2075,16 +2104,16 @@
       <c r="C12" s="11">
         <v>0</v>
       </c>
-      <c r="D12" s="43">
-        <v>0</v>
-      </c>
-      <c r="E12" s="43">
-        <v>0</v>
-      </c>
-      <c r="F12" s="43">
-        <v>0</v>
-      </c>
-      <c r="G12" s="43">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="20">
@@ -2096,7 +2125,7 @@
       <c r="J12" s="22">
         <v>1</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="42">
         <v>1</v>
       </c>
     </row>
@@ -2107,16 +2136,16 @@
       <c r="C13" s="11">
         <v>0</v>
       </c>
-      <c r="D13" s="43">
-        <v>0</v>
-      </c>
-      <c r="E13" s="43">
-        <v>0</v>
-      </c>
-      <c r="F13" s="43">
-        <v>0</v>
-      </c>
-      <c r="G13" s="43">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
@@ -2128,7 +2157,7 @@
       <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="42">
         <v>1</v>
       </c>
     </row>
@@ -2139,16 +2168,16 @@
       <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="43">
-        <v>0</v>
-      </c>
-      <c r="E14" s="43">
-        <v>0</v>
-      </c>
-      <c r="F14" s="43">
-        <v>0</v>
-      </c>
-      <c r="G14" s="43">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
@@ -2160,7 +2189,7 @@
       <c r="J14" s="2">
         <v>1</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="42">
         <v>1</v>
       </c>
     </row>
@@ -2171,16 +2200,16 @@
       <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="43">
-        <v>0</v>
-      </c>
-      <c r="E15" s="43">
-        <v>0</v>
-      </c>
-      <c r="F15" s="43">
-        <v>0</v>
-      </c>
-      <c r="G15" s="43">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
@@ -2192,7 +2221,7 @@
       <c r="J15" s="2">
         <v>1</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="42">
         <v>1</v>
       </c>
     </row>
@@ -2200,47 +2229,47 @@
       <c r="B16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="40">
-        <v>0</v>
-      </c>
-      <c r="D16" s="44">
-        <v>0</v>
-      </c>
-      <c r="E16" s="44">
-        <v>0</v>
-      </c>
-      <c r="F16" s="44">
-        <v>0</v>
-      </c>
-      <c r="G16" s="44">
+      <c r="C16" s="38">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="42">
-        <v>1</v>
-      </c>
-      <c r="J16" s="42">
-        <v>1</v>
-      </c>
-      <c r="K16" s="45">
+      <c r="I16" s="40">
+        <v>1</v>
+      </c>
+      <c r="J16" s="40">
+        <v>1</v>
+      </c>
+      <c r="K16" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2256,7 +2285,7 @@
   <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:XFD1048576"/>
+      <selection activeCell="B10" sqref="B10:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,31 +2340,31 @@
     </row>
     <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="8" t="s">
         <v>0</v>
       </c>
@@ -2365,58 +2394,58 @@
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="54">
-        <v>0</v>
-      </c>
-      <c r="D11" s="62">
-        <v>0</v>
-      </c>
-      <c r="E11" s="54">
-        <v>0</v>
-      </c>
-      <c r="F11" s="54">
-        <v>0</v>
-      </c>
-      <c r="G11" s="54">
-        <v>0</v>
-      </c>
-      <c r="H11" s="54">
-        <v>0</v>
-      </c>
-      <c r="I11" s="54">
-        <v>0</v>
-      </c>
-      <c r="J11" s="60">
-        <v>0</v>
-      </c>
-      <c r="K11" s="61"/>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="51">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="49">
+        <v>0</v>
+      </c>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="54">
-        <v>0</v>
-      </c>
-      <c r="D12" s="43">
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="20">
         <v>1</v>
       </c>
-      <c r="F12" s="43">
-        <v>1</v>
-      </c>
-      <c r="G12" s="43">
-        <v>1</v>
-      </c>
-      <c r="H12" s="43">
-        <v>1</v>
-      </c>
-      <c r="I12" s="43">
-        <v>1</v>
-      </c>
-      <c r="J12" s="55">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2424,28 +2453,28 @@
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="54">
-        <v>0</v>
-      </c>
-      <c r="D13" s="43">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="22">
         <v>1</v>
       </c>
-      <c r="F13" s="43">
-        <v>1</v>
-      </c>
-      <c r="G13" s="43">
-        <v>1</v>
-      </c>
-      <c r="H13" s="43">
-        <v>2</v>
-      </c>
-      <c r="I13" s="43">
-        <v>2</v>
-      </c>
-      <c r="J13" s="55">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2453,28 +2482,28 @@
       <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="54">
-        <v>0</v>
-      </c>
-      <c r="D14" s="43">
-        <v>0</v>
-      </c>
-      <c r="E14" s="43">
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="20">
         <v>2</v>
       </c>
-      <c r="G14" s="43">
-        <v>2</v>
-      </c>
-      <c r="H14" s="43">
-        <v>2</v>
-      </c>
-      <c r="I14" s="43">
-        <v>2</v>
-      </c>
-      <c r="J14" s="55">
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2482,16 +2511,16 @@
       <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="54">
-        <v>0</v>
-      </c>
-      <c r="D15" s="43">
-        <v>0</v>
-      </c>
-      <c r="E15" s="43">
-        <v>1</v>
-      </c>
-      <c r="F15" s="43">
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
         <v>2</v>
       </c>
       <c r="G15" s="20">
@@ -2503,7 +2532,7 @@
       <c r="I15" s="22">
         <v>3</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="42">
         <v>3</v>
       </c>
     </row>
@@ -2511,28 +2540,28 @@
       <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="54">
-        <v>0</v>
-      </c>
-      <c r="D16" s="43">
-        <v>0</v>
-      </c>
-      <c r="E16" s="43">
-        <v>1</v>
-      </c>
-      <c r="F16" s="43">
-        <v>2</v>
-      </c>
-      <c r="G16" s="43">
-        <v>3</v>
-      </c>
-      <c r="H16" s="43">
-        <v>3</v>
-      </c>
-      <c r="I16" s="56">
-        <v>3</v>
-      </c>
-      <c r="J16" s="53">
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="45">
+        <v>3</v>
+      </c>
+      <c r="J16" s="44">
         <v>3</v>
       </c>
     </row>
@@ -2540,46 +2569,46 @@
       <c r="B17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="58">
-        <v>0</v>
-      </c>
-      <c r="D17" s="51">
-        <v>0</v>
-      </c>
-      <c r="E17" s="51">
-        <v>1</v>
-      </c>
-      <c r="F17" s="51">
-        <v>2</v>
-      </c>
-      <c r="G17" s="51">
-        <v>3</v>
-      </c>
-      <c r="H17" s="51">
-        <v>3</v>
-      </c>
-      <c r="I17" s="57">
-        <v>3</v>
-      </c>
-      <c r="J17" s="52">
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>1</v>
+      </c>
+      <c r="F17" s="35">
+        <v>2</v>
+      </c>
+      <c r="G17" s="35">
+        <v>3</v>
+      </c>
+      <c r="H17" s="35">
+        <v>3</v>
+      </c>
+      <c r="I17" s="46">
+        <v>3</v>
+      </c>
+      <c r="J17" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="59"/>
+      <c r="C18" s="48"/>
     </row>
     <row r="19" spans="2:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2594,9 +2623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851D61C3-DF7A-46C3-9EA9-3585D7C5C9AE}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2606,7 +2633,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -2616,7 +2643,7 @@
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -2648,45 +2675,45 @@
     </row>
     <row r="8" spans="1:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
     </row>
     <row r="9" spans="1:18" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="8" t="s">
         <v>0</v>
       </c>
@@ -2708,13 +2735,13 @@
       <c r="I10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="63" t="s">
+      <c r="L10" s="52" t="s">
         <v>1</v>
       </c>
       <c r="M10" s="9" t="s">
@@ -2723,10 +2750,10 @@
       <c r="N10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="64" t="s">
+      <c r="O10" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="63" t="s">
+      <c r="P10" s="52" t="s">
         <v>30</v>
       </c>
       <c r="Q10" s="10" t="s">
@@ -2737,100 +2764,100 @@
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="54">
-        <v>0</v>
-      </c>
-      <c r="D11" s="54">
-        <v>0</v>
-      </c>
-      <c r="E11" s="62">
-        <v>0</v>
-      </c>
-      <c r="F11" s="54">
-        <v>0</v>
-      </c>
-      <c r="G11" s="54">
-        <v>0</v>
-      </c>
-      <c r="H11" s="54">
-        <v>0</v>
-      </c>
-      <c r="I11" s="54">
-        <v>0</v>
-      </c>
-      <c r="J11" s="54">
-        <v>0</v>
-      </c>
-      <c r="K11" s="54">
-        <v>0</v>
-      </c>
-      <c r="L11" s="54">
-        <v>0</v>
-      </c>
-      <c r="M11" s="54">
-        <v>0</v>
-      </c>
-      <c r="N11" s="54">
-        <v>0</v>
-      </c>
-      <c r="O11" s="54">
-        <v>0</v>
-      </c>
-      <c r="P11" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="60">
-        <v>0</v>
-      </c>
-      <c r="R11" s="61"/>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="51">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="49">
+        <v>0</v>
+      </c>
+      <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="54">
-        <v>0</v>
-      </c>
-      <c r="D12" s="43">
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="22">
         <v>0</v>
       </c>
-      <c r="F12" s="43">
-        <v>0</v>
-      </c>
-      <c r="G12" s="43">
-        <v>0</v>
-      </c>
-      <c r="H12" s="43">
-        <v>0</v>
-      </c>
-      <c r="I12" s="43">
-        <v>0</v>
-      </c>
-      <c r="J12" s="74">
-        <v>0</v>
-      </c>
-      <c r="K12" s="43">
-        <v>0</v>
-      </c>
-      <c r="L12" s="43">
-        <v>0</v>
-      </c>
-      <c r="M12" s="43">
-        <v>0</v>
-      </c>
-      <c r="N12" s="43">
-        <v>1</v>
-      </c>
-      <c r="O12" s="43">
-        <v>1</v>
-      </c>
-      <c r="P12" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="55">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="62">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2838,49 +2865,49 @@
       <c r="B13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="54">
-        <v>0</v>
-      </c>
-      <c r="D13" s="43">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="22">
         <v>0</v>
       </c>
-      <c r="F13" s="43">
-        <v>0</v>
-      </c>
-      <c r="G13" s="43">
-        <v>0</v>
-      </c>
-      <c r="H13" s="43">
-        <v>0</v>
-      </c>
-      <c r="I13" s="43">
-        <v>0</v>
-      </c>
-      <c r="J13" s="74">
-        <v>0</v>
-      </c>
-      <c r="K13" s="43">
-        <v>0</v>
-      </c>
-      <c r="L13" s="43">
-        <v>0</v>
-      </c>
-      <c r="M13" s="43">
-        <v>0</v>
-      </c>
-      <c r="N13" s="43">
-        <v>1</v>
-      </c>
-      <c r="O13" s="43">
-        <v>1</v>
-      </c>
-      <c r="P13" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="55">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="62">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2888,49 +2915,49 @@
       <c r="B14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="54">
-        <v>0</v>
-      </c>
-      <c r="D14" s="43">
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="22">
         <v>0</v>
       </c>
-      <c r="F14" s="43">
-        <v>0</v>
-      </c>
-      <c r="G14" s="43">
-        <v>0</v>
-      </c>
-      <c r="H14" s="43">
-        <v>0</v>
-      </c>
-      <c r="I14" s="43">
-        <v>0</v>
-      </c>
-      <c r="J14" s="74">
-        <v>0</v>
-      </c>
-      <c r="K14" s="43">
-        <v>0</v>
-      </c>
-      <c r="L14" s="43">
-        <v>0</v>
-      </c>
-      <c r="M14" s="43">
-        <v>0</v>
-      </c>
-      <c r="N14" s="43">
-        <v>1</v>
-      </c>
-      <c r="O14" s="43">
-        <v>1</v>
-      </c>
-      <c r="P14" s="43">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="55">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="62">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2938,13 +2965,13 @@
       <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="54">
-        <v>0</v>
-      </c>
-      <c r="D15" s="43">
-        <v>0</v>
-      </c>
-      <c r="E15" s="43">
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="20">
@@ -2953,34 +2980,34 @@
       <c r="G15" s="22">
         <v>1</v>
       </c>
-      <c r="H15" s="43">
-        <v>1</v>
-      </c>
-      <c r="I15" s="43">
-        <v>1</v>
-      </c>
-      <c r="J15" s="74">
-        <v>1</v>
-      </c>
-      <c r="K15" s="43">
-        <v>1</v>
-      </c>
-      <c r="L15" s="43">
-        <v>1</v>
-      </c>
-      <c r="M15" s="43">
-        <v>1</v>
-      </c>
-      <c r="N15" s="43">
-        <v>1</v>
-      </c>
-      <c r="O15" s="43">
-        <v>2</v>
-      </c>
-      <c r="P15" s="43">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="55">
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="62">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2988,19 +3015,19 @@
       <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="54">
-        <v>0</v>
-      </c>
-      <c r="D16" s="43">
-        <v>0</v>
-      </c>
-      <c r="E16" s="43">
-        <v>1</v>
-      </c>
-      <c r="F16" s="43">
-        <v>1</v>
-      </c>
-      <c r="G16" s="43">
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="20">
@@ -3009,111 +3036,111 @@
       <c r="I16" s="21">
         <v>2</v>
       </c>
-      <c r="J16" s="75">
-        <v>2</v>
-      </c>
-      <c r="K16" s="43">
-        <v>2</v>
-      </c>
-      <c r="L16" s="43">
-        <v>2</v>
-      </c>
-      <c r="M16" s="43">
-        <v>2</v>
-      </c>
-      <c r="N16" s="43">
-        <v>2</v>
-      </c>
-      <c r="O16" s="43">
-        <v>2</v>
-      </c>
-      <c r="P16" s="43">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="55">
+      <c r="J16" s="63">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="54">
-        <v>0</v>
-      </c>
-      <c r="D17" s="69">
-        <v>0</v>
-      </c>
-      <c r="E17" s="69">
-        <v>1</v>
-      </c>
-      <c r="F17" s="69">
-        <v>1</v>
-      </c>
-      <c r="G17" s="69">
-        <v>1</v>
-      </c>
-      <c r="H17" s="69">
-        <v>2</v>
-      </c>
-      <c r="I17" s="68">
-        <v>2</v>
-      </c>
-      <c r="J17" s="76">
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="58">
+        <v>0</v>
+      </c>
+      <c r="E17" s="58">
+        <v>1</v>
+      </c>
+      <c r="F17" s="58">
+        <v>1</v>
+      </c>
+      <c r="G17" s="58">
+        <v>1</v>
+      </c>
+      <c r="H17" s="58">
+        <v>2</v>
+      </c>
+      <c r="I17" s="57">
+        <v>2</v>
+      </c>
+      <c r="J17" s="64">
         <v>3</v>
       </c>
       <c r="K17" s="20">
         <v>3</v>
       </c>
-      <c r="L17" s="43">
-        <v>3</v>
-      </c>
-      <c r="M17" s="43">
-        <v>3</v>
-      </c>
-      <c r="N17" s="43">
-        <v>3</v>
-      </c>
-      <c r="O17" s="43">
-        <v>3</v>
-      </c>
-      <c r="P17" s="43">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="55">
+      <c r="L17" s="2">
+        <v>3</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3</v>
+      </c>
+      <c r="N17" s="2">
+        <v>3</v>
+      </c>
+      <c r="O17" s="2">
+        <v>3</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="54">
-        <v>0</v>
-      </c>
-      <c r="D18" s="43">
-        <v>0</v>
-      </c>
-      <c r="E18" s="74">
-        <v>1</v>
-      </c>
-      <c r="F18" s="43">
-        <v>1</v>
-      </c>
-      <c r="G18" s="43">
-        <v>1</v>
-      </c>
-      <c r="H18" s="74">
-        <v>2</v>
-      </c>
-      <c r="I18" s="43">
-        <v>3</v>
-      </c>
-      <c r="J18" s="74">
-        <v>3</v>
-      </c>
-      <c r="K18" s="43">
+      <c r="A18" s="61"/>
+      <c r="B18" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="62">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="62">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3</v>
+      </c>
+      <c r="J18" s="62">
+        <v>3</v>
+      </c>
+      <c r="K18" s="2">
         <v>3</v>
       </c>
       <c r="L18" s="20">
@@ -3122,106 +3149,106 @@
       <c r="M18" s="22">
         <v>4</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="2">
         <v>4</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="2">
         <v>4</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="2">
         <v>4</v>
       </c>
-      <c r="Q18" s="55">
+      <c r="Q18" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="54">
-        <v>0</v>
-      </c>
-      <c r="D19" s="43">
-        <v>0</v>
-      </c>
-      <c r="E19" s="74">
-        <v>1</v>
-      </c>
-      <c r="F19" s="43">
-        <v>1</v>
-      </c>
-      <c r="G19" s="43">
-        <v>1</v>
-      </c>
-      <c r="H19" s="74">
-        <v>2</v>
-      </c>
-      <c r="I19" s="43">
-        <v>3</v>
-      </c>
-      <c r="J19" s="74">
-        <v>3</v>
-      </c>
-      <c r="K19" s="43">
-        <v>3</v>
-      </c>
-      <c r="L19" s="43">
+      <c r="A19" s="61"/>
+      <c r="B19" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="62">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="62">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+      <c r="J19" s="62">
+        <v>3</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3</v>
+      </c>
+      <c r="L19" s="2">
         <v>4</v>
       </c>
       <c r="M19" s="22">
         <v>4</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="2">
         <v>4</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="2">
         <v>4</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="2">
         <v>4</v>
       </c>
-      <c r="Q19" s="55">
+      <c r="Q19" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="71" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="54">
-        <v>0</v>
-      </c>
-      <c r="D20" s="43">
-        <v>0</v>
-      </c>
-      <c r="E20" s="74">
-        <v>1</v>
-      </c>
-      <c r="F20" s="43">
-        <v>1</v>
-      </c>
-      <c r="G20" s="43">
-        <v>1</v>
-      </c>
-      <c r="H20" s="74">
-        <v>2</v>
-      </c>
-      <c r="I20" s="43">
-        <v>3</v>
-      </c>
-      <c r="J20" s="74">
-        <v>3</v>
-      </c>
-      <c r="K20" s="43">
-        <v>3</v>
-      </c>
-      <c r="L20" s="43">
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="62">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="62">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+      <c r="J20" s="62">
+        <v>3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2">
         <v>4</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="2">
         <v>4</v>
       </c>
       <c r="N20" s="20">
@@ -3233,135 +3260,134 @@
       <c r="P20" s="22">
         <v>5</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="54">
-        <v>0</v>
-      </c>
-      <c r="D21" s="43">
-        <v>0</v>
-      </c>
-      <c r="E21" s="74">
-        <v>1</v>
-      </c>
-      <c r="F21" s="43">
-        <v>1</v>
-      </c>
-      <c r="G21" s="43">
-        <v>1</v>
-      </c>
-      <c r="H21" s="74">
-        <v>2</v>
-      </c>
-      <c r="I21" s="43">
-        <v>3</v>
-      </c>
-      <c r="J21" s="74">
-        <v>3</v>
-      </c>
-      <c r="K21" s="43">
-        <v>3</v>
-      </c>
-      <c r="L21" s="43">
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="62">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="62">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3</v>
+      </c>
+      <c r="J21" s="62">
+        <v>3</v>
+      </c>
+      <c r="K21" s="2">
+        <v>3</v>
+      </c>
+      <c r="L21" s="2">
         <v>4</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="2">
         <v>4</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="2">
         <v>5</v>
       </c>
-      <c r="O21" s="43">
+      <c r="O21" s="2">
         <v>5</v>
       </c>
-      <c r="P21" s="43">
+      <c r="P21" s="2">
         <v>5</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="58">
-        <v>0</v>
-      </c>
-      <c r="D22" s="44">
-        <v>0</v>
-      </c>
-      <c r="E22" s="77">
-        <v>1</v>
-      </c>
-      <c r="F22" s="44">
-        <v>1</v>
-      </c>
-      <c r="G22" s="44">
-        <v>1</v>
-      </c>
-      <c r="H22" s="77">
-        <v>2</v>
-      </c>
-      <c r="I22" s="44">
-        <v>3</v>
-      </c>
-      <c r="J22" s="77">
-        <v>3</v>
-      </c>
-      <c r="K22" s="44">
-        <v>3</v>
-      </c>
-      <c r="L22" s="44">
+      <c r="C22" s="47">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="65">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="65">
+        <v>2</v>
+      </c>
+      <c r="I22" s="5">
+        <v>3</v>
+      </c>
+      <c r="J22" s="65">
+        <v>3</v>
+      </c>
+      <c r="K22" s="5">
+        <v>3</v>
+      </c>
+      <c r="L22" s="5">
         <v>4</v>
       </c>
-      <c r="M22" s="44">
+      <c r="M22" s="5">
         <v>4</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="5">
         <v>5</v>
       </c>
-      <c r="O22" s="44">
+      <c r="O22" s="5">
         <v>5</v>
       </c>
-      <c r="P22" s="44">
+      <c r="P22" s="5">
         <v>5</v>
       </c>
-      <c r="Q22" s="78">
+      <c r="Q22" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="59"/>
+      <c r="C23" s="48"/>
     </row>
     <row r="24" spans="1:17" s="37" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3370,4 +3396,191 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944E67B5-D24B-4D57-B773-53A1A9F90F92}">
+  <dimension ref="A2:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="20.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+    </row>
+    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="75">
+        <v>0</v>
+      </c>
+      <c r="D11" s="74">
+        <v>0</v>
+      </c>
+      <c r="E11" s="76">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="77">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="73">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="77">
+        <v>0</v>
+      </c>
+      <c r="D13" s="73">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="77">
+        <v>0</v>
+      </c>
+      <c r="D14" s="73">
+        <v>0</v>
+      </c>
+      <c r="E14" s="73">
+        <v>1</v>
+      </c>
+      <c r="F14" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="78">
+        <v>0</v>
+      </c>
+      <c r="D15" s="79">
+        <v>1</v>
+      </c>
+      <c r="E15" s="79">
+        <v>1</v>
+      </c>
+      <c r="F15" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B18:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lcs.xlsx
+++ b/lcs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rocco\uni\algorithms-and-data-structures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocco\uni\algorithms-and-data-structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89C6CF1-BAFF-488B-8362-4ACE31C4810F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1A01B1-C021-4AAB-B172-A587DC5800D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="2355" windowWidth="38040" windowHeight="18525" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGGTAB – GXTXAYB" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="albero – tabella" sheetId="4" r:id="rId4"/>
     <sheet name="programmazione – informatica" sheetId="5" r:id="rId5"/>
     <sheet name="heap – pea" sheetId="6" r:id="rId6"/>
+    <sheet name="XMJYAUZ – MZJAWXU" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="41">
   <si>
     <t>epsilon</t>
   </si>
@@ -145,6 +146,22 @@
   </si>
   <si>
     <t>LCS = EA</t>
+  </si>
+  <si>
+    <t>X = XMJYAUZ
+Y = MZJAWXU</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>LCS = MJAZ</t>
   </si>
 </sst>
 </file>
@@ -229,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -758,11 +775,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,6 +994,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,35 +1015,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,28 +1385,28 @@
     </row>
     <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
@@ -1676,26 +1720,26 @@
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
@@ -2010,30 +2054,30 @@
     </row>
     <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="39"/>
@@ -2340,28 +2384,28 @@
     </row>
     <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="39"/>
@@ -2675,42 +2719,42 @@
     </row>
     <row r="8" spans="1:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
     </row>
     <row r="9" spans="1:18" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="39"/>
@@ -3402,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944E67B5-D24B-4D57-B773-53A1A9F90F92}">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3452,20 +3496,20 @@
     </row>
     <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
@@ -3486,13 +3530,13 @@
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="75">
-        <v>0</v>
-      </c>
-      <c r="D11" s="74">
-        <v>0</v>
-      </c>
-      <c r="E11" s="76">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="68">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
         <v>0</v>
       </c>
       <c r="F11" s="33">
@@ -3503,13 +3547,13 @@
       <c r="B12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="7">
         <v>0</v>
       </c>
       <c r="D12" s="22">
         <v>0</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="4">
@@ -3520,10 +3564,10 @@
       <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="77">
-        <v>0</v>
-      </c>
-      <c r="D13" s="73">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="20">
@@ -3537,16 +3581,16 @@
       <c r="B14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="77">
-        <v>0</v>
-      </c>
-      <c r="D14" s="73">
-        <v>0</v>
-      </c>
-      <c r="E14" s="73">
-        <v>1</v>
-      </c>
-      <c r="F14" s="72">
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="67">
         <v>2</v>
       </c>
     </row>
@@ -3554,13 +3598,13 @@
       <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="78">
-        <v>0</v>
-      </c>
-      <c r="D15" s="79">
-        <v>1</v>
-      </c>
-      <c r="E15" s="79">
+      <c r="C15" s="69">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="66">
@@ -3583,4 +3627,370 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B8371F-EBF9-4D6D-98D1-0AD663E0C154}">
+  <dimension ref="A2:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="12" width="20.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="40.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="20.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+    </row>
+    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="75">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="75">
+        <v>1</v>
+      </c>
+      <c r="G12" s="75">
+        <v>1</v>
+      </c>
+      <c r="H12" s="75">
+        <v>1</v>
+      </c>
+      <c r="I12" s="75">
+        <v>1</v>
+      </c>
+      <c r="J12" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="75">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="75">
+        <v>1</v>
+      </c>
+      <c r="G13" s="75">
+        <v>1</v>
+      </c>
+      <c r="H13" s="75">
+        <v>1</v>
+      </c>
+      <c r="I13" s="75">
+        <v>1</v>
+      </c>
+      <c r="J13" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="75">
+        <v>0</v>
+      </c>
+      <c r="E14" s="75">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20">
+        <v>2</v>
+      </c>
+      <c r="G14" s="22">
+        <v>2</v>
+      </c>
+      <c r="H14" s="75">
+        <v>2</v>
+      </c>
+      <c r="I14" s="75">
+        <v>2</v>
+      </c>
+      <c r="J14" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="75">
+        <v>0</v>
+      </c>
+      <c r="E15" s="75">
+        <v>1</v>
+      </c>
+      <c r="F15" s="75">
+        <v>2</v>
+      </c>
+      <c r="G15" s="75">
+        <v>2</v>
+      </c>
+      <c r="H15" s="20">
+        <v>3</v>
+      </c>
+      <c r="I15" s="75">
+        <v>3</v>
+      </c>
+      <c r="J15" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="75">
+        <v>0</v>
+      </c>
+      <c r="E16" s="75">
+        <v>1</v>
+      </c>
+      <c r="F16" s="75">
+        <v>2</v>
+      </c>
+      <c r="G16" s="75">
+        <v>2</v>
+      </c>
+      <c r="H16" s="22">
+        <v>3</v>
+      </c>
+      <c r="I16" s="77">
+        <v>3</v>
+      </c>
+      <c r="J16" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="80">
+        <v>0</v>
+      </c>
+      <c r="D17" s="75">
+        <v>1</v>
+      </c>
+      <c r="E17" s="75">
+        <v>1</v>
+      </c>
+      <c r="F17" s="75">
+        <v>2</v>
+      </c>
+      <c r="G17" s="75">
+        <v>2</v>
+      </c>
+      <c r="H17" s="22">
+        <v>3</v>
+      </c>
+      <c r="I17" s="75">
+        <v>3</v>
+      </c>
+      <c r="J17" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="78">
+        <v>1</v>
+      </c>
+      <c r="E18" s="78">
+        <v>1</v>
+      </c>
+      <c r="F18" s="78">
+        <v>2</v>
+      </c>
+      <c r="G18" s="78">
+        <v>2</v>
+      </c>
+      <c r="H18" s="78">
+        <v>3</v>
+      </c>
+      <c r="I18" s="81">
+        <v>4</v>
+      </c>
+      <c r="J18" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B21" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:J9"/>
+    <mergeCell ref="B21:J21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>